--- a/MainTop/07.10.2024/Таня месяц с 07.09.2024 по 07.10.2024/печать.xlsx
+++ b/MainTop/07.10.2024/Таня месяц с 07.09.2024 по 07.10.2024/печать.xlsx
@@ -534,10 +534,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M119" activeCellId="0" sqref="M119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4746,12 +4746,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J121" s="0" t="n">
-        <f aca="false">SUM(J2:J120)</f>
-        <v>644</v>
-      </c>
-    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/MainTop/07.10.2024/Таня месяц с 07.09.2024 по 07.10.2024/печать.xlsx
+++ b/MainTop/07.10.2024/Таня месяц с 07.09.2024 по 07.10.2024/печать.xlsx
@@ -536,8 +536,8 @@
   </sheetPr>
   <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A110" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M119" activeCellId="0" sqref="M119"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J113" activeCellId="0" sqref="J113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
